--- a/biology/Origine et évolution du vivant/Inférence_bayésienne_en_phylogénie/Inférence_bayésienne_en_phylogénie.xlsx
+++ b/biology/Origine et évolution du vivant/Inférence_bayésienne_en_phylogénie/Inférence_bayésienne_en_phylogénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inf%C3%A9rence_bay%C3%A9sienne_en_phylog%C3%A9nie</t>
+          <t>Inférence_bayésienne_en_phylogénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inférence bayésienne de la phylogénie est la combinaison des informations dans l'a priori et dans la vraisemblance des données pour créer la soi-disant probabilité postérieure des arbres, qui est la probabilité que l'arbre soit correct compte tenu des données, de l'a priori et du modèle de vraisemblance. L'inférence bayésienne a été introduite dans la phylogénétique moléculaire dans les années 1990 par trois groupes indépendants : Bruce Rannala et Ziheng Yang à Berkeley[1],[2], Bob Mau à Madison[3], et Shuying Li à l'Université de l'Iowa[4], les deux derniers étant doctorants à l'époque. L'approche est devenue très populaire depuis la sortie du logiciel MrBayes en 2001[5], et est maintenant l'une des méthodes les plus populaires en phylogénétique moléculaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inférence bayésienne de la phylogénie est la combinaison des informations dans l'a priori et dans la vraisemblance des données pour créer la soi-disant probabilité postérieure des arbres, qui est la probabilité que l'arbre soit correct compte tenu des données, de l'a priori et du modèle de vraisemblance. L'inférence bayésienne a été introduite dans la phylogénétique moléculaire dans les années 1990 par trois groupes indépendants : Bruce Rannala et Ziheng Yang à Berkeley Bob Mau à Madison, et Shuying Li à l'Université de l'Iowa, les deux derniers étant doctorants à l'époque. L'approche est devenue très populaire depuis la sortie du logiciel MrBayes en 2001, et est maintenant l'une des méthodes les plus populaires en phylogénétique moléculaire.
 </t>
         </is>
       </c>
